--- a/vin.xlsx
+++ b/vin.xlsx
@@ -453,11 +453,11 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8,17,14,45,23,28,49,18,38,19,43,12,6,41</t>
+          <t>43,108,5,126,142,192,113,35,90,24,139,160,4,15,150</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>44,5,26,2,40,32,47,35,9,36,31,50,33,27,15,46,34,10,22,1</t>
+          <t>131,54,187,16,166,112,20,111,121,133,162,71,80,127,175,57,184,117,119,171</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16,29,7,4,11,13,3,21,24,25,20,42,48,39,30,37</t>
+          <t>76,93,183,156,180,155,64,120,67,97,41,65,40,165,130,58</t>
         </is>
       </c>
     </row>

--- a/vin.xlsx
+++ b/vin.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>43,108,5,126,142,192,113,35,90,24,139,160,4,15,150</t>
+          <t>186,138,169,100,94,150,59,87,190,39,21,63,144,2,28</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>131,54,187,16,166,112,20,111,121,133,162,71,80,127,175,57,184,117,119,171</t>
+          <t>131,95,23,31,154,115,111,176,82,179,166,78,108,6,85,191,162,146,151,27</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>76,93,183,156,180,155,64,120,67,97,41,65,40,165,130,58</t>
+          <t>42,13,107,114,66,35,18,45,77,105,41,103,183,51,127,118</t>
         </is>
       </c>
     </row>

--- a/vin.xlsx
+++ b/vin.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>186,138,169,100,94,150,59,87,190,39,21,63,144,2,28</t>
+          <t>50,138,149,122,114,13,163,12,76,11,25,4,10,189,147</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>131,95,23,31,154,115,111,176,82,179,166,78,108,6,85,191,162,146,151,27</t>
+          <t>168,49,137,128,3,100,70,139,196,74,162,118,133,130,79,75,27,9,110,105</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>42,13,107,114,66,35,18,45,77,105,41,103,183,51,127,118</t>
+          <t>37,22,112,188,55,62,60,174,6,66,151,96,180,117,156,99</t>
         </is>
       </c>
     </row>

--- a/vin.xlsx
+++ b/vin.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>50,138,149,122,114,13,163,12,76,11,25,4,10,189,147</t>
+          <t>183,176,156,186,2,86,87,82,77,184,131,64,102,27,192</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>168,49,137,128,3,100,70,139,196,74,162,118,133,130,79,75,27,9,110,105</t>
+          <t>53,68,163,167,123,16,73,3,129,48,146,173,97,66,30,11,109,99,75,135</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>37,22,112,188,55,62,60,174,6,66,151,96,180,117,156,99</t>
+          <t>9,128,41,171,140,17,56,105,189,170,92,104,175,141,24,108</t>
         </is>
       </c>
     </row>

--- a/vin.xlsx
+++ b/vin.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>183,176,156,186,2,86,87,82,77,184,131,64,102,27,192</t>
+          <t>24,112,150,87,25,170,140,96,52,164,139,79,13,27,3</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>53,68,163,167,123,16,73,3,129,48,146,173,97,66,30,11,109,99,75,135</t>
+          <t>101,119,81,136,195,83,43,84,8,117,114,162,160,100,74,2,178,6,59,55</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9,128,41,171,140,17,56,105,189,170,92,104,175,141,24,108</t>
+          <t>184,77,10,23,99,65,67,90,22,125,31,152,149,196,42,89</t>
         </is>
       </c>
     </row>

--- a/vin.xlsx
+++ b/vin.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24,112,150,87,25,170,140,96,52,164,139,79,13,27,3</t>
+          <t>153,196,20,155,78,102,128,190,141,80,49,67,24,10,81</t>
         </is>
       </c>
     </row>
@@ -475,7 +475,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>101,119,81,136,195,83,43,84,8,117,114,162,160,100,74,2,178,6,59,55</t>
+          <t>27,76,158,34,99,116,38,68,163,161,73,71,85,46,185,82,140,146,108,123</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>184,77,10,23,99,65,67,90,22,125,31,152,149,196,42,89</t>
+          <t>77,186,124,58,69,118,75,56,31,103,114,22,53,17,133,86</t>
         </is>
       </c>
     </row>

--- a/vin.xlsx
+++ b/vin.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>153,196,20,155,78,102,128,190,141,80,49,67,24,10,81</t>
+          <t>5,6,17,31,66,72,88,93,95,96,130,138,147,163,190</t>
         </is>
       </c>
     </row>
@@ -471,11 +471,11 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27,76,158,34,99,116,38,68,163,161,73,71,85,46,185,82,140,146,108,123</t>
+          <t>15,18,35,91,99,114,116,121,134,151,155,156,160,172,193</t>
         </is>
       </c>
     </row>
@@ -489,11 +489,11 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>77,186,124,58,69,118,75,56,31,103,114,22,53,17,133,86</t>
+          <t>10,14,36,37,46,78,112,115,124,126,148,161,165,166,180</t>
         </is>
       </c>
     </row>
